--- a/Result_files/V3_Bids_2020-08-17_2020-08-23.xlsx
+++ b/Result_files/V3_Bids_2020-08-17_2020-08-23.xlsx
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.273</v>
+        <v>16.28800000000001</v>
       </c>
       <c r="H2" t="n">
         <v>47.8</v>
@@ -560,7 +560,7 @@
         <v>11.27299999999997</v>
       </c>
       <c r="J2" t="n">
-        <v>-273.6713426977328</v>
+        <v>-273.6713426977135</v>
       </c>
       <c r="K2" t="n">
         <v>32.619999</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>386.7351182890403</v>
+        <v>2608.513846236616</v>
       </c>
       <c r="K3" t="n">
         <v>28.299999</v>
@@ -654,7 +654,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="E4" t="n">
         <v>0.26</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2539.525268157219</v>
+        <v>2547.293373861915</v>
       </c>
       <c r="K4" t="n">
         <v>27.15</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2428.159555784721</v>
+        <v>2428.159555784731</v>
       </c>
       <c r="K5" t="n">
         <v>25.99</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2446.381335013892</v>
+        <v>2462.279832045801</v>
       </c>
       <c r="K6" t="n">
         <v>25.969999</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>18.319</v>
+        <v>18.59600000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>1032.751705186706</v>
+        <v>1348.346092949114</v>
       </c>
       <c r="K7" t="n">
         <v>26.66</v>
@@ -884,19 +884,19 @@
         <v>0.39</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>15.70000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>18.80699999999996</v>
+        <v>18.80699999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>9.800000000000001</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-959.4605220357574</v>
+        <v>-882.1320969901579</v>
       </c>
       <c r="K8" t="n">
         <v>33.279999</v>
@@ -940,19 +940,19 @@
         <v>0.39</v>
       </c>
       <c r="F9" t="n">
-        <v>49.8</v>
+        <v>30.2</v>
       </c>
       <c r="G9" t="n">
         <v>18.46099999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="I9" t="n">
-        <v>15.65799999999997</v>
+        <v>12.34899999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>-2225.600298481802</v>
+        <v>-867.1497151674017</v>
       </c>
       <c r="K9" t="n">
         <v>38.740002</v>
@@ -996,19 +996,19 @@
         <v>0.39</v>
       </c>
       <c r="F10" t="n">
-        <v>47.8</v>
+        <v>42.30000000000001</v>
       </c>
       <c r="G10" t="n">
         <v>17.61599999999993</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.499999999999983</v>
       </c>
       <c r="I10" t="n">
-        <v>15.65799999999997</v>
+        <v>12.34899999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>-3685.958480188294</v>
+        <v>-883.2046270600001</v>
       </c>
       <c r="K10" t="n">
         <v>37.7</v>
@@ -1064,7 +1064,7 @@
         <v>12.349</v>
       </c>
       <c r="J11" t="n">
-        <v>-3556.282799881471</v>
+        <v>-753.7606187873055</v>
       </c>
       <c r="K11" t="n">
         <v>35.549999</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-3816.734922240844</v>
+        <v>-2184.682115751589</v>
       </c>
       <c r="K12" t="n">
         <v>30.299999</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-3875.602366464976</v>
+        <v>-2725.505078977058</v>
       </c>
       <c r="K13" t="n">
         <v>26.65</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-3436.958659370674</v>
+        <v>-2272.773734735051</v>
       </c>
       <c r="K14" t="n">
         <v>21.540001</v>
@@ -1288,7 +1288,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>-3795.147250921626</v>
+        <v>-1741.196869228386</v>
       </c>
       <c r="K15" t="n">
         <v>21</v>
@@ -1344,7 +1344,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>-3142.857055717214</v>
+        <v>-1128.208460354591</v>
       </c>
       <c r="K16" t="n">
         <v>19.23</v>
@@ -1400,7 +1400,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>-2640.118315056558</v>
+        <v>-507.6194686362374</v>
       </c>
       <c r="K17" t="n">
         <v>22.77</v>
@@ -1456,7 +1456,7 @@
         <v>13.14299999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>-1858.62868886877</v>
+        <v>-604.9603248661815</v>
       </c>
       <c r="K18" t="n">
         <v>26.66</v>
@@ -1500,19 +1500,19 @@
         <v>0.39</v>
       </c>
       <c r="F19" t="n">
-        <v>49.8</v>
+        <v>14.49999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>14.68399999999991</v>
+        <v>14.684</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.30000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>13.14299999999999</v>
+        <v>11.01799999999997</v>
       </c>
       <c r="J19" t="n">
-        <v>-783.681307253464</v>
+        <v>-675.1628688999996</v>
       </c>
       <c r="K19" t="n">
         <v>37.900002</v>
@@ -1556,19 +1556,19 @@
         <v>0.39</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>7.099999999999993</v>
       </c>
       <c r="G20" t="n">
-        <v>14.63599999999991</v>
+        <v>14.636</v>
       </c>
       <c r="H20" t="n">
-        <v>35.8</v>
+        <v>42.70000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>11.01799999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>-672.674490799994</v>
+        <v>-656.5395708200002</v>
       </c>
       <c r="K20" t="n">
         <v>42.189999</v>
@@ -1624,7 +1624,7 @@
         <v>11.291</v>
       </c>
       <c r="J21" t="n">
-        <v>-341.3271245570193</v>
+        <v>-195.8178292691896</v>
       </c>
       <c r="K21" t="n">
         <v>44.639999</v>
@@ -1680,7 +1680,7 @@
         <v>11.291</v>
       </c>
       <c r="J22" t="n">
-        <v>-187.337997899625</v>
+        <v>-187.3379978997078</v>
       </c>
       <c r="K22" t="n">
         <v>42.220001</v>
@@ -1736,7 +1736,7 @@
         <v>12.27299999999997</v>
       </c>
       <c r="J23" t="n">
-        <v>-227.8785123037854</v>
+        <v>-227.8785123037692</v>
       </c>
       <c r="K23" t="n">
         <v>41.959999</v>
@@ -1792,7 +1792,7 @@
         <v>12.38099999999991</v>
       </c>
       <c r="J24" t="n">
-        <v>-229.4790843701236</v>
+        <v>-229.4790843700092</v>
       </c>
       <c r="K24" t="n">
         <v>41.439999</v>
@@ -1848,7 +1848,7 @@
         <v>12.38099999999991</v>
       </c>
       <c r="J25" t="n">
-        <v>-268.3582209852646</v>
+        <v>-268.3582209852318</v>
       </c>
       <c r="K25" t="n">
         <v>35.900002</v>
@@ -1904,7 +1904,7 @@
         <v>11.27299999999997</v>
       </c>
       <c r="J26" t="n">
-        <v>-257.8513706593571</v>
+        <v>-257.8513706593589</v>
       </c>
       <c r="K26" t="n">
         <v>38</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>394.1758204895269</v>
+        <v>394.1758204895124</v>
       </c>
       <c r="K27" t="n">
         <v>32.799999</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>376.6571917190051</v>
+        <v>2551.961255521173</v>
       </c>
       <c r="K28" t="n">
         <v>30.959999</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2484.201867334305</v>
+        <v>2484.3181775821</v>
       </c>
       <c r="K29" t="n">
         <v>29.52</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2531.424329824521</v>
+        <v>2537.064147592304</v>
       </c>
       <c r="K30" t="n">
         <v>28.940001</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18.319</v>
+        <v>18.59600000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>1135.982241457119</v>
+        <v>1376.696682058848</v>
       </c>
       <c r="K31" t="n">
         <v>29.5</v>
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>18.319</v>
+        <v>18.59600000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>-274.1531893542744</v>
+        <v>-169.6817823630665</v>
       </c>
       <c r="K32" t="n">
         <v>29.48</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F33" t="n">
         <v>49.8</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.65799999999997</v>
+        <v>15.859</v>
       </c>
       <c r="J33" t="n">
-        <v>-1681.306507352877</v>
+        <v>-1248.983818110619</v>
       </c>
       <c r="K33" t="n">
         <v>31.700001</v>
@@ -2331,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>21</v>
+        <v>23.16</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F34" t="n">
         <v>49.8</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15.65799999999997</v>
+        <v>15.859</v>
       </c>
       <c r="J34" t="n">
-        <v>-2851.271192902289</v>
+        <v>-1664.374432921938</v>
       </c>
       <c r="K34" t="n">
         <v>32.639999</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>23.16</v>
       </c>
       <c r="D35" t="n">
         <v>49.8</v>
@@ -2408,7 +2408,7 @@
         <v>13</v>
       </c>
       <c r="J35" t="n">
-        <v>-2652.383243205872</v>
+        <v>-1032.21693662236</v>
       </c>
       <c r="K35" t="n">
         <v>33.110001</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>23.16</v>
       </c>
       <c r="D36" t="n">
         <v>49.8</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-2943.390765323751</v>
+        <v>-2614.544755107033</v>
       </c>
       <c r="K36" t="n">
         <v>29.6</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>23.16</v>
       </c>
       <c r="D37" t="n">
         <v>49.8</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-2458.887573408113</v>
+        <v>-2252.72024308649</v>
       </c>
       <c r="K37" t="n">
         <v>27.59</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>28.21</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>49.8</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1247.263983776644</v>
+        <v>-3015.093329202278</v>
       </c>
       <c r="K38" t="n">
         <v>25.9</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>28.21</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>255.0052063136737</v>
+        <v>-2734.286022299123</v>
       </c>
       <c r="K39" t="n">
         <v>24.2</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>28.21</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>-92.08061168541204</v>
+        <v>-1943.217252661487</v>
       </c>
       <c r="K40" t="n">
         <v>24.709999</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>28.21</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>-1062.013040950717</v>
+        <v>-1052.999558131885</v>
       </c>
       <c r="K41" t="n">
         <v>27.379999</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>22.5</v>
+        <v>25.52</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>13.14299999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>-1118.795591747048</v>
+        <v>-109.3098906972189</v>
       </c>
       <c r="K42" t="n">
         <v>28.9</v>
@@ -2835,28 +2835,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>22.5</v>
+        <v>25.52</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F43" t="n">
-        <v>43.8</v>
+        <v>39.5</v>
       </c>
       <c r="G43" t="n">
-        <v>14.6939999999999</v>
+        <v>14.69399999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>10.3</v>
       </c>
       <c r="I43" t="n">
-        <v>12.45499999999998</v>
+        <v>12.455</v>
       </c>
       <c r="J43" t="n">
-        <v>-747.5519826000012</v>
+        <v>178.8152083383192</v>
       </c>
       <c r="K43" t="n">
         <v>33.200001</v>
@@ -2891,28 +2891,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>22.5</v>
+        <v>25.52</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F44" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>14.64400000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>46.40000000000001</v>
+        <v>48.8</v>
       </c>
       <c r="I44" t="n">
         <v>12.45499999999998</v>
       </c>
       <c r="J44" t="n">
-        <v>-656.6274426681177</v>
+        <v>-619.9161637163035</v>
       </c>
       <c r="K44" t="n">
         <v>38.99998</v>
@@ -2947,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>22.5</v>
+        <v>25.52</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>15.517</v>
+        <v>15.51700000000001</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>12.90899999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>-337.0288619794758</v>
+        <v>-222.1267570040371</v>
       </c>
       <c r="K45" t="n">
         <v>40.700001</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2</v>
+        <v>24.21</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.517</v>
+        <v>15.51700000000001</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3024,7 +3024,7 @@
         <v>12.90899999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>-204.331608823072</v>
+        <v>-204.3316088230513</v>
       </c>
       <c r="K46" t="n">
         <v>41.200001</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>24.2</v>
+        <v>24.21</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>13.02999999999992</v>
       </c>
       <c r="J47" t="n">
-        <v>-237.9342512096166</v>
+        <v>-237.9342512095185</v>
       </c>
       <c r="K47" t="n">
         <v>40.9</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>24.2</v>
+        <v>24.21</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>12.79300000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>-243.0218355534587</v>
+        <v>-243.0218355534417</v>
       </c>
       <c r="K48" t="n">
         <v>38.619999</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>24.2</v>
+        <v>24.21</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>16.608</v>
+        <v>16.60799999999999</v>
       </c>
       <c r="H49" t="n">
         <v>49.8</v>
@@ -3192,7 +3192,7 @@
         <v>12.79300000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>-277.9913613136884</v>
+        <v>-277.9913613137376</v>
       </c>
       <c r="K49" t="n">
         <v>33.80002</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>17.273</v>
+        <v>17.738</v>
       </c>
       <c r="H50" t="n">
         <v>47.8</v>
@@ -3248,7 +3248,7 @@
         <v>12.88299999999998</v>
       </c>
       <c r="J50" t="n">
-        <v>-268.7402227718796</v>
+        <v>-268.7402227718185</v>
       </c>
       <c r="K50" t="n">
         <v>30.700001</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>397.2361906353132</v>
+        <v>397.2361906352742</v>
       </c>
       <c r="K51" t="n">
         <v>23.440001</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2548.032945826728</v>
+        <v>2547.846598235912</v>
       </c>
       <c r="K52" t="n">
         <v>19.700001</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2451.589393392585</v>
+        <v>2451.589393392588</v>
       </c>
       <c r="K53" t="n">
         <v>19.639999</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>22.46</v>
+        <v>28.08</v>
       </c>
       <c r="D54" t="n">
         <v>49.8</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2470.901499179375</v>
+        <v>2470.901499179337</v>
       </c>
       <c r="K54" t="n">
         <v>19.5</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>22.46</v>
+        <v>28.08</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>18.807</v>
+        <v>18.80699999999998</v>
       </c>
       <c r="H55" t="n">
         <v>49.8</v>
@@ -3528,7 +3528,7 @@
         <v>17.00299999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>-800.6054489089096</v>
+        <v>-773.8960268079112</v>
       </c>
       <c r="K55" t="n">
         <v>22.85</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>22.46</v>
+        <v>28.08</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3572,19 +3572,19 @@
         <v>0.39</v>
       </c>
       <c r="F56" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>46.90000000000001</v>
+        <v>44.3</v>
       </c>
       <c r="I56" t="n">
         <v>17.00299999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>-1010.252304762447</v>
+        <v>-997.47959728</v>
       </c>
       <c r="K56" t="n">
         <v>28.77</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>22.46</v>
+        <v>28.08</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3628,19 +3628,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F57" t="n">
-        <v>18.1</v>
+        <v>49.8</v>
       </c>
       <c r="G57" t="n">
         <v>17.11799999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>15.33999999999997</v>
+        <v>15.856</v>
       </c>
       <c r="J57" t="n">
-        <v>-836.6681918400002</v>
+        <v>-1064.806477526817</v>
       </c>
       <c r="K57" t="n">
         <v>32.459999</v>
@@ -3684,19 +3684,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F58" t="n">
-        <v>26.8</v>
+        <v>47.8</v>
       </c>
       <c r="G58" t="n">
         <v>17.11799999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>14.4969999999999</v>
+        <v>15.856</v>
       </c>
       <c r="J58" t="n">
-        <v>-838.259075440002</v>
+        <v>-1957.295283892846</v>
       </c>
       <c r="K58" t="n">
         <v>32.49999</v>
@@ -3743,7 +3743,7 @@
         <v>47.8</v>
       </c>
       <c r="G59" t="n">
-        <v>17.118</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-921.4261544135421</v>
+        <v>-1696.175856774457</v>
       </c>
       <c r="K59" t="n">
         <v>20.68</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-2744.068578600768</v>
+        <v>229.5224457072736</v>
       </c>
       <c r="K60" t="n">
         <v>19</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-2895.398435977124</v>
+        <v>-1546.047121989396</v>
       </c>
       <c r="K61" t="n">
         <v>18.200001</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>27</v>
+        <v>28.52</v>
       </c>
       <c r="D62" t="n">
         <v>49.8</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-2985.997569718229</v>
+        <v>-1309.068235419312</v>
       </c>
       <c r="K62" t="n">
         <v>17.18</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>27</v>
+        <v>28.52</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         <v>13.27399999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>-3363.030764329239</v>
+        <v>-382.576445074121</v>
       </c>
       <c r="K63" t="n">
         <v>17.99</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>28.52</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>13.27399999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>-1423.599361937157</v>
+        <v>-650.0572388272475</v>
       </c>
       <c r="K64" t="n">
         <v>17.23</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>28.52</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>13.27399999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>707.6393239979826</v>
+        <v>-1755.435731932077</v>
       </c>
       <c r="K65" t="n">
         <v>20.30001</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>28.64</v>
+        <v>32.4</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>13.27399999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>545.8402451130919</v>
+        <v>-946.3234314222788</v>
       </c>
       <c r="K66" t="n">
         <v>21.16</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>28.64</v>
+        <v>32.4</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0.39</v>
       </c>
       <c r="F67" t="n">
-        <v>40.2</v>
+        <v>13.8</v>
       </c>
       <c r="G67" t="n">
         <v>14.68399999999991</v>
       </c>
       <c r="H67" t="n">
-        <v>9.600000000000001</v>
+        <v>36</v>
       </c>
       <c r="I67" t="n">
         <v>11.024</v>
       </c>
       <c r="J67" t="n">
-        <v>-743.5337144352127</v>
+        <v>-666.0243519599998</v>
       </c>
       <c r="K67" t="n">
         <v>30.75</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>28.64</v>
+        <v>32.4</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4244,19 +4244,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F68" t="n">
-        <v>14.8</v>
+        <v>2.2</v>
       </c>
       <c r="G68" t="n">
-        <v>14.63599999999991</v>
+        <v>14.63599999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>35</v>
+        <v>47.6</v>
       </c>
       <c r="I68" t="n">
         <v>11.52199999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>-678.5970972799905</v>
+        <v>-639.6753041599999</v>
       </c>
       <c r="K68" t="n">
         <v>39.549999</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>28.64</v>
+        <v>32.4</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>15.52</v>
+        <v>16.391</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>11.52199999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>-295.5748751035543</v>
+        <v>-157.9944960979065</v>
       </c>
       <c r="K69" t="n">
         <v>43.40001</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>25.96</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>15.52</v>
+        <v>16.391</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>11.52199999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>-157.1975818235803</v>
+        <v>-157.1975818235545</v>
       </c>
       <c r="K70" t="n">
         <v>43.400002</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>25.96</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>16.076</v>
+        <v>16.469</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4424,7 +4424,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J71" t="n">
-        <v>-211.5866965750954</v>
+        <v>-211.5866965750868</v>
       </c>
       <c r="K71" t="n">
         <v>42.43</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>25.96</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>15.84</v>
+        <v>16.611</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4480,7 +4480,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J72" t="n">
-        <v>-224.4414437581167</v>
+        <v>-224.441443758098</v>
       </c>
       <c r="K72" t="n">
         <v>41.689999</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>25.96</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>16.251</v>
+        <v>16.611</v>
       </c>
       <c r="H73" t="n">
         <v>49.8</v>
@@ -4536,7 +4536,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J73" t="n">
-        <v>-263.851813542232</v>
+        <v>-263.8518135422485</v>
       </c>
       <c r="K73" t="n">
         <v>36.709999</v>
@@ -4592,7 +4592,7 @@
         <v>12.8959999999999</v>
       </c>
       <c r="J74" t="n">
-        <v>-260.4429912320504</v>
+        <v>-260.442991232043</v>
       </c>
       <c r="K74" t="n">
         <v>30.67</v>
@@ -4630,7 +4630,7 @@
         <v>23.04</v>
       </c>
       <c r="D75" t="n">
-        <v>37.9</v>
+        <v>47.8</v>
       </c>
       <c r="E75" t="n">
         <v>0.26</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2505.004608261434</v>
+        <v>2622.270347235147</v>
       </c>
       <c r="K75" t="n">
         <v>27.82</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2565.61796572705</v>
+        <v>2565.430343293377</v>
       </c>
       <c r="K76" t="n">
         <v>26.9</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2484.045161290317</v>
+        <v>2484.045161290308</v>
       </c>
       <c r="K77" t="n">
         <v>25.25</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>24.3</v>
+        <v>24.88</v>
       </c>
       <c r="D78" t="n">
         <v>49.8</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2544.491098656456</v>
+        <v>2544.491098656409</v>
       </c>
       <c r="K78" t="n">
         <v>25.23</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>24.3</v>
+        <v>24.88</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>18.596</v>
+        <v>18.725</v>
       </c>
       <c r="J79" t="n">
-        <v>1388.923967630858</v>
+        <v>1574.713707069563</v>
       </c>
       <c r="K79" t="n">
         <v>25.9</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>24.3</v>
+        <v>24.88</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>18.596</v>
+        <v>18.725</v>
       </c>
       <c r="J80" t="n">
-        <v>874.8496096830088</v>
+        <v>1634.776555923888</v>
       </c>
       <c r="K80" t="n">
         <v>25.459999</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>24.3</v>
+        <v>24.88</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -4981,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>15.86600000000001</v>
+        <v>15.35399999999998</v>
       </c>
       <c r="J81" t="n">
-        <v>496.0157495525837</v>
+        <v>1594.794031424115</v>
       </c>
       <c r="K81" t="n">
         <v>26.9</v>
@@ -5028,19 +5028,19 @@
         <v>0.39</v>
       </c>
       <c r="F82" t="n">
-        <v>23.8</v>
+        <v>34</v>
       </c>
       <c r="G82" t="n">
         <v>17.60499999999996</v>
       </c>
       <c r="H82" t="n">
-        <v>24</v>
+        <v>13.8</v>
       </c>
       <c r="I82" t="n">
         <v>14.505</v>
       </c>
       <c r="J82" t="n">
-        <v>-826.645411470391</v>
+        <v>128.6557069687572</v>
       </c>
       <c r="K82" t="n">
         <v>27.4</v>
@@ -5078,7 +5078,7 @@
         <v>22.08</v>
       </c>
       <c r="D83" t="n">
-        <v>40</v>
+        <v>45.60000000000002</v>
       </c>
       <c r="E83" t="n">
         <v>0.2599999999999909</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-35.33375401378149</v>
+        <v>-38.61861127322686</v>
       </c>
       <c r="K83" t="n">
         <v>27.620001</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-276.3192619422302</v>
+        <v>-103.8448833561457</v>
       </c>
       <c r="K84" t="n">
         <v>27.629999</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-490.5054258628704</v>
+        <v>-187.2643303182541</v>
       </c>
       <c r="K85" t="n">
         <v>28.1</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D86" t="n">
         <v>49.8</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>406.874167730839</v>
+        <v>808.1577978020732</v>
       </c>
       <c r="K86" t="n">
         <v>26.42</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>13.143</v>
       </c>
       <c r="J87" t="n">
-        <v>-176.3085611631323</v>
+        <v>-513.3968180127298</v>
       </c>
       <c r="K87" t="n">
         <v>24.76</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>13.143</v>
       </c>
       <c r="J88" t="n">
-        <v>384.0088324105097</v>
+        <v>-812.7204080282463</v>
       </c>
       <c r="K88" t="n">
         <v>24.530001</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>13.143</v>
       </c>
       <c r="J89" t="n">
-        <v>953.0329600455551</v>
+        <v>394.8883669618532</v>
       </c>
       <c r="K89" t="n">
         <v>24.16</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>22.64</v>
+        <v>26.32</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>13.143</v>
       </c>
       <c r="J90" t="n">
-        <v>1274.508270965407</v>
+        <v>1011.879997627045</v>
       </c>
       <c r="K90" t="n">
         <v>23.860001</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>22.64</v>
+        <v>26.32</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -5541,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>13.143</v>
+        <v>11.03100000000001</v>
       </c>
       <c r="J91" t="n">
-        <v>1814.414109867995</v>
+        <v>1641.279399459304</v>
       </c>
       <c r="K91" t="n">
         <v>25.559999</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>22.64</v>
+        <v>26.32</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -5600,7 +5600,7 @@
         <v>11.529</v>
       </c>
       <c r="J92" t="n">
-        <v>-513.7045823813697</v>
+        <v>-338.8088993988382</v>
       </c>
       <c r="K92" t="n">
         <v>28.8</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>22.64</v>
+        <v>26.32</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>14.54</v>
+        <v>14.53999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>49.8</v>
@@ -5656,7 +5656,7 @@
         <v>11.529</v>
       </c>
       <c r="J93" t="n">
-        <v>-211.2639277102264</v>
+        <v>-195.7956068569383</v>
       </c>
       <c r="K93" t="n">
         <v>33</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>24.21</v>
+        <v>25.52</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>14.54</v>
+        <v>14.53999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>49.8</v>
@@ -5712,7 +5712,7 @@
         <v>11.529</v>
       </c>
       <c r="J94" t="n">
-        <v>-189.9122844411408</v>
+        <v>-189.9122844411308</v>
       </c>
       <c r="K94" t="n">
         <v>34.139999</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>24.21</v>
+        <v>25.52</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>12.63299999999998</v>
       </c>
       <c r="J95" t="n">
-        <v>-224.8521116161579</v>
+        <v>-224.8521116161419</v>
       </c>
       <c r="K95" t="n">
         <v>35.490002</v>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>24.21</v>
+        <v>25.52</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>12.63299999999998</v>
       </c>
       <c r="J96" t="n">
-        <v>-225.7566563586731</v>
+        <v>-225.7566563585948</v>
       </c>
       <c r="K96" t="n">
         <v>38.43</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>24.21</v>
+        <v>25.52</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>16.263</v>
+        <v>16.26300000000001</v>
       </c>
       <c r="H97" t="n">
         <v>49.8</v>
@@ -5880,7 +5880,7 @@
         <v>12.63299999999998</v>
       </c>
       <c r="J97" t="n">
-        <v>-260.6381470833501</v>
+        <v>-260.6381470833481</v>
       </c>
       <c r="K97" t="n">
         <v>34.889999</v>
@@ -5936,7 +5936,7 @@
         <v>12.88299999999998</v>
       </c>
       <c r="J98" t="n">
-        <v>-253.3270163119869</v>
+        <v>-253.3270163119843</v>
       </c>
       <c r="K98" t="n">
         <v>30.67</v>
@@ -5974,7 +5974,7 @@
         <v>27</v>
       </c>
       <c r="D99" t="n">
-        <v>47.8</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>0.26</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>397.3428141410924</v>
+        <v>519.6347702669495</v>
       </c>
       <c r="K99" t="n">
         <v>27.82</v>
@@ -6030,7 +6030,7 @@
         <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>21.7</v>
+        <v>47.8</v>
       </c>
       <c r="E100" t="n">
         <v>0.26</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1174.55665033097</v>
+        <v>2626.872018261577</v>
       </c>
       <c r="K100" t="n">
         <v>26.9</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2541.276956417347</v>
+        <v>2541.10730153184</v>
       </c>
       <c r="K101" t="n">
         <v>25.25</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2519.401410845797</v>
+        <v>2524.036591345066</v>
       </c>
       <c r="K102" t="n">
         <v>25.23</v>
@@ -6216,7 +6216,7 @@
         <v>17.00299999999999</v>
       </c>
       <c r="J103" t="n">
-        <v>-774.7954378260467</v>
+        <v>-561.8078303113106</v>
       </c>
       <c r="K103" t="n">
         <v>25.9</v>
@@ -6260,19 +6260,19 @@
         <v>0.39</v>
       </c>
       <c r="F104" t="n">
-        <v>9.600000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>20.28999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>38.2</v>
+        <v>45.1</v>
       </c>
       <c r="I104" t="n">
         <v>17.00299999999999</v>
       </c>
       <c r="J104" t="n">
-        <v>-888.2835967624945</v>
+        <v>-908.1840676731964</v>
       </c>
       <c r="K104" t="n">
         <v>25.459999</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F105" t="n">
         <v>47.8</v>
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>15.658</v>
+        <v>15.859</v>
       </c>
       <c r="J105" t="n">
-        <v>-50.5559145455217</v>
+        <v>232.6876477168747</v>
       </c>
       <c r="K105" t="n">
         <v>26.9</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F106" t="n">
         <v>47.8</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>15.658</v>
+        <v>15.859</v>
       </c>
       <c r="J106" t="n">
-        <v>713.8396291798513</v>
+        <v>-815.0067329477474</v>
       </c>
       <c r="K106" t="n">
         <v>27.4</v>
@@ -6425,13 +6425,13 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F107" t="n">
         <v>47.8</v>
       </c>
       <c r="G107" t="n">
-        <v>17.119</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>132.7802764597607</v>
+        <v>-14.84772429090044</v>
       </c>
       <c r="K107" t="n">
         <v>27.620001</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1383.157498382573</v>
+        <v>-555.6966639684858</v>
       </c>
       <c r="K108" t="n">
         <v>27.629999</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>990.9353029792031</v>
+        <v>-637.7396349403314</v>
       </c>
       <c r="K109" t="n">
         <v>28.1</v>
@@ -6584,13 +6584,13 @@
         <v>44064.5</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>25</v>
+        <v>23.03</v>
       </c>
       <c r="D110" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E110" t="n">
         <v>0.2599999999999909</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>902.0023010691287</v>
+        <v>818.3420589341638</v>
       </c>
       <c r="K110" t="n">
         <v>26.42</v>
@@ -6640,19 +6640,19 @@
         <v>44064.54166666666</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>23.03</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F111" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>13.14299999999999</v>
       </c>
       <c r="J111" t="n">
-        <v>187.1455588351881</v>
+        <v>647.0139418208365</v>
       </c>
       <c r="K111" t="n">
         <v>24.76</v>
@@ -6696,10 +6696,10 @@
         <v>44064.58333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>25</v>
+        <v>23.03</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>0.39</v>
       </c>
       <c r="F112" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>13.14299999999999</v>
       </c>
       <c r="J112" t="n">
-        <v>-276.0003751171656</v>
+        <v>358.2766838515064</v>
       </c>
       <c r="K112" t="n">
         <v>24.530001</v>
@@ -6752,10 +6752,10 @@
         <v>44064.625</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>25</v>
+        <v>23.03</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>0.39</v>
       </c>
       <c r="F113" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>13.14299999999999</v>
       </c>
       <c r="J113" t="n">
-        <v>-1450.185502631668</v>
+        <v>121.7932595625158</v>
       </c>
       <c r="K113" t="n">
         <v>24.16</v>
@@ -6811,13 +6811,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>28.64</v>
+        <v>30.21</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F114" t="n">
         <v>49.8</v>
@@ -6832,7 +6832,7 @@
         <v>13.14299999999999</v>
       </c>
       <c r="J114" t="n">
-        <v>-1557.366178995845</v>
+        <v>1121.759034942024</v>
       </c>
       <c r="K114" t="n">
         <v>23.860001</v>
@@ -6867,13 +6867,13 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>28.64</v>
+        <v>30.21</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F115" t="n">
         <v>49.8</v>
@@ -6888,7 +6888,7 @@
         <v>13.14299999999999</v>
       </c>
       <c r="J115" t="n">
-        <v>-283.5089855167967</v>
+        <v>1408.529051609489</v>
       </c>
       <c r="K115" t="n">
         <v>25.559999</v>
@@ -6923,28 +6923,28 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>28.64</v>
+        <v>30.21</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F116" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>15.38099999999991</v>
+        <v>15.38200000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>40.90000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I116" t="n">
         <v>11.52199999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>-657.042242759986</v>
+        <v>-412.8386054925853</v>
       </c>
       <c r="K116" t="n">
         <v>28.8</v>
@@ -6979,13 +6979,13 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>28.64</v>
+        <v>30.21</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3900000000000003</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>11.52199999999999</v>
       </c>
       <c r="J117" t="n">
-        <v>-365.9272954110186</v>
+        <v>-198.8278647449769</v>
       </c>
       <c r="K117" t="n">
         <v>33</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>11.52199999999999</v>
       </c>
       <c r="J118" t="n">
-        <v>-186.0145738375164</v>
+        <v>-186.0145738374955</v>
       </c>
       <c r="K118" t="n">
         <v>34.139999</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>16.474</v>
+        <v>16.47399999999998</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7112,7 +7112,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J119" t="n">
-        <v>-225.9376678995007</v>
+        <v>-225.9376678994801</v>
       </c>
       <c r="K119" t="n">
         <v>35.490002</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J120" t="n">
-        <v>-229.3912331462753</v>
+        <v>-229.3912331461968</v>
       </c>
       <c r="K120" t="n">
         <v>38.43</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -7224,7 +7224,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J121" t="n">
-        <v>-262.5639206274586</v>
+        <v>-262.5639206274433</v>
       </c>
       <c r="K121" t="n">
         <v>34.889999</v>
@@ -7268,19 +7268,19 @@
         <v>0.26</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G122" t="n">
-        <v>17.273</v>
+        <v>16.35699999999991</v>
       </c>
       <c r="H122" t="n">
-        <v>47.8</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="I122" t="n">
-        <v>14.762</v>
+        <v>14.76200000000001</v>
       </c>
       <c r="J122" t="n">
-        <v>-325.4888324464611</v>
+        <v>-211.0228541460107</v>
       </c>
       <c r="K122" t="n">
         <v>33.119999</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>2442.544088468409</v>
+        <v>2442.544088468407</v>
       </c>
       <c r="K123" t="n">
         <v>29</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2348.06871412804</v>
+        <v>2348.068714128031</v>
       </c>
       <c r="K124" t="n">
         <v>28</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2320.909223369908</v>
+        <v>2320.909223369883</v>
       </c>
       <c r="K125" t="n">
         <v>26.5</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2401.701521074895</v>
+        <v>2401.701521074904</v>
       </c>
       <c r="K126" t="n">
         <v>26.15</v>
@@ -7557,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>18.319</v>
+        <v>18.72900000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>1308.905677523588</v>
+        <v>1638.379770865749</v>
       </c>
       <c r="K127" t="n">
         <v>25.700001</v>
@@ -7604,19 +7604,19 @@
         <v>0.39</v>
       </c>
       <c r="F128" t="n">
-        <v>15.9</v>
+        <v>2.900000000000034</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>20.281</v>
       </c>
       <c r="H128" t="n">
-        <v>33.9</v>
+        <v>46.89999999999997</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-741.3207567000002</v>
+        <v>-740.2476666858425</v>
       </c>
       <c r="K128" t="n">
         <v>26</v>
@@ -7657,22 +7657,22 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F129" t="n">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>16.11199999999991</v>
       </c>
       <c r="H129" t="n">
-        <v>24.5</v>
+        <v>49.8</v>
       </c>
       <c r="I129" t="n">
         <v>13.983</v>
       </c>
       <c r="J129" t="n">
-        <v>-827.778897760001</v>
+        <v>-714.5436875503414</v>
       </c>
       <c r="K129" t="n">
         <v>25.950001</v>
@@ -7704,31 +7704,31 @@
         <v>44065.33333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>25</v>
+        <v>23.16</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F130" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>16.11199999999991</v>
+        <v>18.461</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I130" t="n">
-        <v>15.65799999999998</v>
+        <v>13.983</v>
       </c>
       <c r="J130" t="n">
-        <v>-1292.918485206647</v>
+        <v>-668.6760045070091</v>
       </c>
       <c r="K130" t="n">
         <v>28</v>
@@ -7760,22 +7760,22 @@
         <v>44065.375</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>25</v>
+        <v>23.16</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F131" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G131" t="n">
-        <v>16.112</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>13.983</v>
       </c>
       <c r="J131" t="n">
-        <v>-1184.754787541893</v>
+        <v>-976.9008912749897</v>
       </c>
       <c r="K131" t="n">
         <v>28.360001</v>
@@ -7816,13 +7816,13 @@
         <v>44065.41666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>25</v>
+        <v>23.16</v>
       </c>
       <c r="D132" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E132" t="n">
         <v>0.2599999999999909</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-1531.057988803075</v>
+        <v>-1835.5597251971</v>
       </c>
       <c r="K132" t="n">
         <v>25.51</v>
@@ -7872,13 +7872,13 @@
         <v>44065.45833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>25</v>
+        <v>23.16</v>
       </c>
       <c r="D133" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E133" t="n">
         <v>0.2599999999999909</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-2453.526411848977</v>
+        <v>84.72509443018092</v>
       </c>
       <c r="K133" t="n">
         <v>24.110001</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>25</v>
+        <v>28.21</v>
       </c>
       <c r="D134" t="n">
         <v>49.8</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-2157.937643930131</v>
+        <v>-1141.505809780097</v>
       </c>
       <c r="K134" t="n">
         <v>22.940001</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>25</v>
+        <v>28.21</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J135" t="n">
-        <v>-2220.985469611478</v>
+        <v>-1895.49894898542</v>
       </c>
       <c r="K135" t="n">
         <v>21.91</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>25</v>
+        <v>28.21</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J136" t="n">
-        <v>-1853.251552983718</v>
+        <v>664.2856423893896</v>
       </c>
       <c r="K136" t="n">
         <v>19.66</v>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>25</v>
+        <v>28.21</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -8120,7 +8120,7 @@
         <v>13.14300000000001</v>
       </c>
       <c r="J137" t="n">
-        <v>-1116.153287188524</v>
+        <v>-685.3620865324948</v>
       </c>
       <c r="K137" t="n">
         <v>20.9</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>26.32</v>
+        <v>31</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>13.278</v>
+        <v>13.27799999999998</v>
       </c>
       <c r="J138" t="n">
-        <v>-1159.008898526317</v>
+        <v>544.4203388861832</v>
       </c>
       <c r="K138" t="n">
         <v>22.5</v>
@@ -8211,28 +8211,28 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>26.32</v>
+        <v>31</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.3899999999999637</v>
       </c>
       <c r="F139" t="n">
-        <v>29.7</v>
+        <v>25.8</v>
       </c>
       <c r="G139" t="n">
         <v>15.47999999999996</v>
       </c>
       <c r="H139" t="n">
-        <v>20.1</v>
+        <v>24</v>
       </c>
       <c r="I139" t="n">
-        <v>13.14299999999997</v>
+        <v>13.14299999999999</v>
       </c>
       <c r="J139" t="n">
-        <v>-731.1460880404134</v>
+        <v>-720.9656587121137</v>
       </c>
       <c r="K139" t="n">
         <v>28.110001</v>
@@ -8267,28 +8267,28 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>26.32</v>
+        <v>31</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F140" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>15.37399999999997</v>
+        <v>15.382</v>
       </c>
       <c r="H140" t="n">
-        <v>40</v>
+        <v>49.8</v>
       </c>
       <c r="I140" t="n">
         <v>13.14299999999997</v>
       </c>
       <c r="J140" t="n">
-        <v>-684.0582187599881</v>
+        <v>-423.2820823911636</v>
       </c>
       <c r="K140" t="n">
         <v>34</v>
@@ -8323,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>26.32</v>
+        <v>31</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2700000000000002</v>
+        <v>0.3900000000000003</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -8344,7 +8344,7 @@
         <v>13.27799999999996</v>
       </c>
       <c r="J141" t="n">
-        <v>-283.2988264492826</v>
+        <v>-182.2439681733779</v>
       </c>
       <c r="K141" t="n">
         <v>36.98</v>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>25.52</v>
+        <v>26.37</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -8400,7 +8400,7 @@
         <v>13.27799999999996</v>
       </c>
       <c r="J142" t="n">
-        <v>-186.5590000306652</v>
+        <v>-186.5590000306371</v>
       </c>
       <c r="K142" t="n">
         <v>39.77</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>25.52</v>
+        <v>26.37</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>16.466</v>
+        <v>16.473</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8456,7 +8456,7 @@
         <v>13.54199999999997</v>
       </c>
       <c r="J143" t="n">
-        <v>-234.4221491275132</v>
+        <v>-234.4221491274743</v>
       </c>
       <c r="K143" t="n">
         <v>40.209999</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>25.52</v>
+        <v>26.37</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>16.60799999999999</v>
+        <v>16.616</v>
       </c>
       <c r="H144" t="n">
         <v>49.8</v>
@@ -8512,7 +8512,7 @@
         <v>13.23399999999998</v>
       </c>
       <c r="J144" t="n">
-        <v>-250.205282797723</v>
+        <v>-250.2052827977209</v>
       </c>
       <c r="K144" t="n">
         <v>39.98</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>25.52</v>
+        <v>26.37</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>16.60799999999999</v>
+        <v>16.617</v>
       </c>
       <c r="H145" t="n">
         <v>49.8</v>
@@ -8568,7 +8568,7 @@
         <v>13.23399999999998</v>
       </c>
       <c r="J145" t="n">
-        <v>-295.2652294959009</v>
+        <v>-295.265229495902</v>
       </c>
       <c r="K145" t="n">
         <v>35.7</v>
@@ -8612,19 +8612,19 @@
         <v>0.26</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G146" t="n">
-        <v>17.273</v>
+        <v>16.35699999999991</v>
       </c>
       <c r="H146" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>12.88299999999998</v>
       </c>
       <c r="J146" t="n">
-        <v>-261.4450528990066</v>
+        <v>1998.226525010387</v>
       </c>
       <c r="K146" t="n">
         <v>26.9</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2575.386792907399</v>
+        <v>2575.214989478306</v>
       </c>
       <c r="K147" t="n">
         <v>21.959999</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2520.118298644683</v>
+        <v>2520.118298644676</v>
       </c>
       <c r="K148" t="n">
         <v>21.76</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2467.609321401983</v>
+        <v>2467.609321401909</v>
       </c>
       <c r="K149" t="n">
         <v>22.459999</v>
@@ -8824,13 +8824,13 @@
         <v>44066.16666666666</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>24.2</v>
+        <v>22.46000000000004</v>
       </c>
       <c r="D150" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E150" t="n">
         <v>0.26</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2564.054101028761</v>
+        <v>2493.2913148088</v>
       </c>
       <c r="K150" t="n">
         <v>24.59999</v>
@@ -8880,10 +8880,10 @@
         <v>44066.20833333334</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>24.2</v>
+        <v>22.46000000000004</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -8892,19 +8892,19 @@
         <v>0.26</v>
       </c>
       <c r="F151" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>20.28499999999999</v>
       </c>
       <c r="H151" t="n">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="I151" t="n">
         <v>17.00299999999999</v>
       </c>
       <c r="J151" t="n">
-        <v>-901.6478786095853</v>
+        <v>-741.4751153102726</v>
       </c>
       <c r="K151" t="n">
         <v>27.59999</v>
@@ -8936,10 +8936,10 @@
         <v>44066.25</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>24.2</v>
+        <v>22.46000000000004</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>0.39</v>
       </c>
       <c r="F152" t="n">
-        <v>31.8</v>
+        <v>26.50000000000001</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>18</v>
+        <v>21.29999999999999</v>
       </c>
       <c r="I152" t="n">
-        <v>17.00299999999999</v>
+        <v>17.00300000000002</v>
       </c>
       <c r="J152" t="n">
-        <v>-805.2571456718282</v>
+        <v>-810.5955269820863</v>
       </c>
       <c r="K152" t="n">
         <v>32</v>
@@ -8992,10 +8992,10 @@
         <v>44066.29166666666</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>24.2</v>
+        <v>22.46000000000004</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F153" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G153" t="n">
         <v>16.11199999999991</v>
@@ -9016,7 +9016,7 @@
         <v>15.99899999999998</v>
       </c>
       <c r="J153" t="n">
-        <v>-1909.224008844756</v>
+        <v>56.7660889788404</v>
       </c>
       <c r="K153" t="n">
         <v>36.959999</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>26</v>
+        <v>26.84</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -9072,7 +9072,7 @@
         <v>15.99899999999998</v>
       </c>
       <c r="J154" t="n">
-        <v>-1746.412862622777</v>
+        <v>-644.2067676400386</v>
       </c>
       <c r="K154" t="n">
         <v>38.450001</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>26</v>
+        <v>26.84</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -9119,7 +9119,7 @@
         <v>49.8</v>
       </c>
       <c r="G155" t="n">
-        <v>16.112</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-2794.210627064157</v>
+        <v>-646.7550239657129</v>
       </c>
       <c r="K155" t="n">
         <v>37.549999</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>26</v>
+        <v>26.84</v>
       </c>
       <c r="D156" t="n">
         <v>49.8</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-1168.250543118862</v>
+        <v>-2709.936594889657</v>
       </c>
       <c r="K156" t="n">
         <v>28.75</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>26</v>
+        <v>26.84</v>
       </c>
       <c r="D157" t="n">
         <v>49.8</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-2088.891896546295</v>
+        <v>-786.1445583664892</v>
       </c>
       <c r="K157" t="n">
         <v>26.629999</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>25.96</v>
+        <v>24</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-3222.900022226295</v>
+        <v>-2593.033946297348</v>
       </c>
       <c r="K158" t="n">
         <v>26.93</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>25.96</v>
+        <v>24</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>13.143</v>
       </c>
       <c r="J159" t="n">
-        <v>-1853.934373877459</v>
+        <v>-2797.623601882965</v>
       </c>
       <c r="K159" t="n">
         <v>26.620001</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>25.96</v>
+        <v>24</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9408,7 +9408,7 @@
         <v>13.143</v>
       </c>
       <c r="J160" t="n">
-        <v>-2970.084998205326</v>
+        <v>-2169.782156772927</v>
       </c>
       <c r="K160" t="n">
         <v>26.6</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>25.96</v>
+        <v>24</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>13.143</v>
       </c>
       <c r="J161" t="n">
-        <v>-1440.94792791072</v>
+        <v>-1923.293204444419</v>
       </c>
       <c r="K161" t="n">
         <v>27.41</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>26.32</v>
+        <v>28.64</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>13.143</v>
       </c>
       <c r="J162" t="n">
-        <v>-1738.591279676532</v>
+        <v>-1444.914534224127</v>
       </c>
       <c r="K162" t="n">
         <v>34.740002</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>26.32</v>
+        <v>28.64</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>13.143</v>
       </c>
       <c r="J163" t="n">
-        <v>-104.4115062379475</v>
+        <v>38.67880766412263</v>
       </c>
       <c r="K163" t="n">
         <v>39.689999</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>26.32</v>
+        <v>28.64</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9620,19 +9620,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F164" t="n">
-        <v>8.800000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G164" t="n">
         <v>15.37399999999997</v>
       </c>
       <c r="H164" t="n">
-        <v>41</v>
+        <v>48.3</v>
       </c>
       <c r="I164" t="n">
         <v>11.52199999999999</v>
       </c>
       <c r="J164" t="n">
-        <v>-654.960148799999</v>
+        <v>-632.8992933000005</v>
       </c>
       <c r="K164" t="n">
         <v>43.389999</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>26.32</v>
+        <v>28.64</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>11.52199999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>-228.9600848098707</v>
+        <v>-175.307247833522</v>
       </c>
       <c r="K165" t="n">
         <v>53.959999</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>25</v>
+        <v>26.37</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>25</v>
+        <v>26.37</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>16.03299999999996</v>
+        <v>16.469</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9800,7 +9800,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J167" t="n">
-        <v>-218.6411639909163</v>
+        <v>-218.6411639909164</v>
       </c>
       <c r="K167" t="n">
         <v>43.389999</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>25</v>
+        <v>26.37</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>16.46199999999999</v>
+        <v>16.611</v>
       </c>
       <c r="H168" t="n">
         <v>49.8</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>25</v>
+        <v>26.37</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>16.46199999999999</v>
+        <v>16.611</v>
       </c>
       <c r="H169" t="n">
         <v>49.8</v>
@@ -9912,7 +9912,7 @@
         <v>12.62099999999992</v>
       </c>
       <c r="J169" t="n">
-        <v>-255.8357689784305</v>
+        <v>-255.8357689784307</v>
       </c>
       <c r="K169" t="n">
         <v>36.860001</v>
